--- a/src/main/resources/file/export/战果数据报表.xlsx
+++ b/src/main/resources/file/export/战果数据报表.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="战果统计报表" sheetId="1" r:id="rId1"/>
-    <sheet name="警钟类型" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="警种类型" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -475,7 +474,7 @@
   <dimension ref="E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -610,17 +609,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>